--- a/유류대정산서_양식.xlsx
+++ b/유류대정산서_양식.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhk12\Desktop\과제\06. 유류대 정산\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhk12\Desktop\과제\06. 유류대 정산\opinet-proxy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
     <definedName name="전기">'유류대정산서(중소환경사업화)'!$N$9:$N$11</definedName>
     <definedName name="하이브리드Oil">'유류대정산서(중소환경사업화)'!$O$4:$O$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
   <si>
     <t>차 량 운 행 일 지 (시외) : 당일 외근 및 출장시</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -83,10 +83,6 @@
   </si>
   <si>
     <t>도착지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>`1`</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2149,6 +2145,63 @@
     <xf numFmtId="176" fontId="42" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="8" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="13" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="14" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2206,62 +2259,86 @@
     <xf numFmtId="14" fontId="11" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="30" fillId="2" borderId="8" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="2" borderId="13" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="2" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="2" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="2" borderId="57" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="2" borderId="56" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="2" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="2" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="30" fillId="2" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="39" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="8" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="13" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="30" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2298,87 +2375,6 @@
     </xf>
     <xf numFmtId="176" fontId="30" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="2" borderId="8" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="2" borderId="13" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="2" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="2" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="2" borderId="57" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="2" borderId="56" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="2" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="2" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="2" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="39" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2798,10 +2794,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE43"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:I29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2818,31 +2814,31 @@
     <col min="10" max="16384" width="5.5" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="130" t="s">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-    </row>
-    <row r="2" spans="1:31" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="130"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-    </row>
-    <row r="3" spans="1:31" s="4" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+    </row>
+    <row r="2" spans="1:18" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+    </row>
+    <row r="3" spans="1:18" s="4" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2853,60 +2849,60 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:31" s="4" customFormat="1" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="131" t="s">
+    <row r="4" spans="1:18" s="4" customFormat="1" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="132" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="132"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
+      <c r="B5" s="151"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="9">
         <v>10</v>
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:31" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="131" t="s">
+    <row r="6" spans="1:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="131"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="13">
         <v>10</v>
       </c>
       <c r="I6" s="57"/>
     </row>
-    <row r="7" spans="1:31" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
@@ -2914,7 +2910,7 @@
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="35">
         <v>7</v>
@@ -2922,7 +2918,7 @@
       <c r="I7" s="17"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:31" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
@@ -2934,10 +2930,10 @@
       <c r="I8" s="42"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:31" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14"/>
       <c r="B9" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -2947,109 +2943,106 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:31" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="134" t="s">
+    <row r="10" spans="1:18" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="139"/>
-      <c r="E10" s="140" t="s">
+      <c r="D10" s="158"/>
+      <c r="E10" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="140"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="144" t="s">
+      <c r="F10" s="159"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="128" t="s">
+      <c r="I10" s="147" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="135"/>
-      <c r="B11" s="137"/>
+    <row r="11" spans="1:18" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="154"/>
+      <c r="B11" s="156"/>
       <c r="C11" s="55" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="142"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="129"/>
-    </row>
-    <row r="12" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="148"/>
+    </row>
+    <row r="12" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>1</v>
       </c>
       <c r="B12" s="50"/>
       <c r="C12" s="54"/>
       <c r="D12" s="51"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="151"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
       <c r="H12" s="2"/>
       <c r="I12" s="58"/>
-      <c r="AE12" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>2</v>
       </c>
       <c r="B13" s="50"/>
       <c r="C13" s="54"/>
       <c r="D13" s="51"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
       <c r="H13" s="2"/>
       <c r="I13" s="58"/>
     </row>
-    <row r="14" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>3</v>
       </c>
       <c r="B14" s="50"/>
       <c r="C14" s="127"/>
       <c r="D14" s="51"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="153"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="140"/>
       <c r="H14" s="49"/>
       <c r="I14" s="58"/>
     </row>
-    <row r="15" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>4</v>
       </c>
       <c r="B15" s="50"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="149"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="131"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>5</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="149"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="131"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
     </row>
@@ -3060,9 +3053,9 @@
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="149"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="131"/>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
     </row>
@@ -3073,9 +3066,9 @@
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="149"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="131"/>
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
     </row>
@@ -3086,9 +3079,9 @@
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="149"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="131"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
     </row>
@@ -3099,9 +3092,9 @@
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="149"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="131"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
     </row>
@@ -3112,9 +3105,9 @@
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="149"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="131"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
     </row>
@@ -3125,9 +3118,9 @@
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="148"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="149"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="131"/>
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
     </row>
@@ -3138,9 +3131,9 @@
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="149"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="131"/>
       <c r="H23" s="2"/>
       <c r="I23" s="3"/>
     </row>
@@ -3151,9 +3144,9 @@
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="148"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="149"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="131"/>
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
     </row>
@@ -3164,9 +3157,9 @@
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="149"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="131"/>
       <c r="H25" s="2"/>
       <c r="I25" s="3"/>
     </row>
@@ -3177,28 +3170,28 @@
       <c r="B26" s="53"/>
       <c r="C26" s="20"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="149"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="131"/>
       <c r="H26" s="20"/>
       <c r="I26" s="33"/>
     </row>
     <row r="27" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="163"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="164"/>
-      <c r="F27" s="164"/>
-      <c r="G27" s="165"/>
+      <c r="A27" s="132" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="133"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="135"/>
       <c r="H27" s="46">
         <f>SUM(H12:H26)</f>
         <v>0</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3213,48 +3206,48 @@
       <c r="I28" s="16"/>
     </row>
     <row r="29" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="154" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="155"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="157"/>
+      <c r="A29" s="141" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="142"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="144"/>
       <c r="J29" s="34"/>
     </row>
     <row r="30" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="36"/>
       <c r="B30" s="37"/>
-      <c r="C30" s="160" t="s">
-        <v>30</v>
+      <c r="C30" s="128" t="s">
+        <v>29</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="22" t="s">
+      <c r="I30" s="38" t="s">
         <v>17</v>
-      </c>
-      <c r="I30" s="38" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="36"/>
       <c r="B31" s="37"/>
-      <c r="C31" s="161"/>
+      <c r="C31" s="129"/>
       <c r="D31" s="39"/>
       <c r="E31" s="47"/>
       <c r="F31" s="47"/>
@@ -3267,15 +3260,12 @@
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
       <c r="D32" s="24"/>
-      <c r="E32" s="159" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="159"/>
-      <c r="G32" s="158" t="str">
-        <f>DOLLAR(I31)&amp;"원"</f>
-        <v>₩0원</v>
-      </c>
-      <c r="H32" s="158"/>
+      <c r="E32" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="146"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
       <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3291,16 +3281,16 @@
     </row>
     <row r="34" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
-      <c r="B34" s="147" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="147"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="147"/>
-      <c r="I34" s="147"/>
+      <c r="B34" s="136" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="136"/>
+      <c r="D34" s="136"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="136"/>
+      <c r="I34" s="136"/>
     </row>
     <row r="35" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="25"/>
@@ -3333,7 +3323,7 @@
       <c r="F37" s="27"/>
       <c r="G37" s="27"/>
       <c r="H37" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I37" s="27"/>
     </row>
@@ -3402,11 +3392,19 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E12:G12"/>
@@ -3423,19 +3421,11 @@
     <mergeCell ref="A29:I29"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="E32:F32"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="A27:G27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3471,32 +3461,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="168" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
+      <c r="A1" s="195" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
       <c r="O1" s="126"/>
       <c r="P1" s="126"/>
     </row>
     <row r="2" spans="1:35" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="168"/>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
+      <c r="A2" s="195"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
       <c r="O2" s="109" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P2" s="126"/>
     </row>
@@ -3511,39 +3501,39 @@
       <c r="H3" s="66"/>
       <c r="I3" s="66"/>
       <c r="O3" s="125" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P3" s="125" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:35" s="108" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="169" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="169"/>
-      <c r="C4" s="191">
+      <c r="A4" s="196" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="196"/>
+      <c r="C4" s="179">
         <v>45475</v>
       </c>
-      <c r="D4" s="191"/>
+      <c r="D4" s="179"/>
       <c r="E4" s="124"/>
       <c r="F4" s="123" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" s="123" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4" s="123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="122" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M4" s="60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N4" s="78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O4" s="79">
         <v>1740</v>
@@ -3572,20 +3562,20 @@
       <c r="AI4" s="109"/>
     </row>
     <row r="5" spans="1:35" s="60" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="170" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="171" t="s">
+      <c r="A5" s="197" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="171"/>
+      <c r="B5" s="197"/>
+      <c r="C5" s="198" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="198"/>
       <c r="E5" s="121"/>
       <c r="F5" s="120" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" s="120" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H5" s="119">
         <f>VLOOKUP($G$5,$N$4:$AM$11,3,FALSE)</f>
@@ -3596,10 +3586,10 @@
         <v>1059</v>
       </c>
       <c r="M5" s="60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N5" s="78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O5" s="79">
         <v>1602</v>
@@ -3628,27 +3618,27 @@
       <c r="AI5" s="78"/>
     </row>
     <row r="6" spans="1:35" s="60" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="169" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="169"/>
-      <c r="C6" s="171" t="s">
+      <c r="A6" s="196" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="171"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="198" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="198"/>
       <c r="E6" s="62"/>
       <c r="F6" s="118" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="118" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I6" s="116"/>
       <c r="M6" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N6" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O6" s="79">
         <v>1740</v>
@@ -3687,7 +3677,7 @@
       <c r="H7" s="113"/>
       <c r="I7" s="116"/>
       <c r="N7" s="78" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O7" s="79">
         <v>1059</v>
@@ -3726,10 +3716,10 @@
       <c r="H8" s="113"/>
       <c r="I8" s="116"/>
       <c r="N8" s="78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O8" s="79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P8" s="79">
         <v>94.9</v>
@@ -3757,7 +3747,7 @@
     <row r="9" spans="1:35" s="60" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="86"/>
       <c r="B9" s="114" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
@@ -3767,7 +3757,7 @@
       <c r="H9" s="112"/>
       <c r="I9" s="112"/>
       <c r="N9" s="78" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O9" s="79">
         <v>324.39999999999998</v>
@@ -3796,29 +3786,29 @@
       <c r="AI9" s="78"/>
     </row>
     <row r="10" spans="1:35" s="108" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="172" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="174" t="s">
+      <c r="A10" s="199" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="176" t="s">
+      <c r="B10" s="201" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="177"/>
-      <c r="E10" s="183" t="s">
+      <c r="C10" s="203" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="184"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="189" t="s">
+      <c r="D10" s="204"/>
+      <c r="E10" s="171" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="166" t="s">
+      <c r="F10" s="172"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="177" t="s">
         <v>53</v>
       </c>
+      <c r="I10" s="193" t="s">
+        <v>52</v>
+      </c>
       <c r="N10" s="78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O10" s="79">
         <v>347.2</v>
@@ -3847,21 +3837,21 @@
       <c r="AI10" s="109"/>
     </row>
     <row r="11" spans="1:35" s="108" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="173"/>
-      <c r="B11" s="175"/>
+      <c r="A11" s="200"/>
+      <c r="B11" s="202"/>
       <c r="C11" s="111" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="110" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="186"/>
-      <c r="F11" s="187"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="167"/>
+        <v>49</v>
+      </c>
+      <c r="E11" s="174"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="194"/>
       <c r="N11" s="78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O11" s="79">
         <v>324.39999999999998</v>
@@ -3894,24 +3884,24 @@
         <v>1</v>
       </c>
       <c r="B12" s="106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="192" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="193"/>
-      <c r="G12" s="193"/>
+      <c r="E12" s="180" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="181"/>
+      <c r="G12" s="181"/>
       <c r="H12" s="99">
         <v>340</v>
       </c>
       <c r="I12" s="103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N12" s="78"/>
       <c r="O12" s="79"/>
@@ -3943,9 +3933,9 @@
       <c r="B13" s="97"/>
       <c r="C13" s="102"/>
       <c r="D13" s="100"/>
-      <c r="E13" s="194"/>
-      <c r="F13" s="195"/>
-      <c r="G13" s="195"/>
+      <c r="E13" s="182"/>
+      <c r="F13" s="183"/>
+      <c r="G13" s="183"/>
       <c r="H13" s="94"/>
       <c r="I13" s="93"/>
       <c r="N13" s="78"/>
@@ -3978,9 +3968,9 @@
       <c r="B14" s="97"/>
       <c r="C14" s="101"/>
       <c r="D14" s="100"/>
-      <c r="E14" s="196"/>
-      <c r="F14" s="197"/>
-      <c r="G14" s="198"/>
+      <c r="E14" s="184"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="186"/>
       <c r="H14" s="99"/>
       <c r="I14" s="98"/>
       <c r="N14" s="78"/>
@@ -4013,9 +4003,9 @@
       <c r="B15" s="97"/>
       <c r="C15" s="94"/>
       <c r="D15" s="93"/>
-      <c r="E15" s="199"/>
-      <c r="F15" s="200"/>
-      <c r="G15" s="201"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="189"/>
       <c r="H15" s="94"/>
       <c r="I15" s="93"/>
       <c r="N15" s="78"/>
@@ -4048,9 +4038,9 @@
       <c r="B16" s="95"/>
       <c r="C16" s="94"/>
       <c r="D16" s="93"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="200"/>
-      <c r="G16" s="201"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="188"/>
+      <c r="G16" s="189"/>
       <c r="H16" s="94"/>
       <c r="I16" s="93"/>
       <c r="N16" s="78"/>
@@ -4083,9 +4073,9 @@
       <c r="B17" s="95"/>
       <c r="C17" s="94"/>
       <c r="D17" s="93"/>
-      <c r="E17" s="199"/>
-      <c r="F17" s="200"/>
-      <c r="G17" s="201"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="189"/>
       <c r="H17" s="94"/>
       <c r="I17" s="93"/>
       <c r="N17" s="78"/>
@@ -4118,9 +4108,9 @@
       <c r="B18" s="95"/>
       <c r="C18" s="94"/>
       <c r="D18" s="93"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="200"/>
-      <c r="G18" s="201"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="189"/>
       <c r="H18" s="94"/>
       <c r="I18" s="93"/>
       <c r="N18" s="78"/>
@@ -4153,9 +4143,9 @@
       <c r="B19" s="91"/>
       <c r="C19" s="90"/>
       <c r="D19" s="89"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="204"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="191"/>
+      <c r="G19" s="192"/>
       <c r="H19" s="90"/>
       <c r="I19" s="89"/>
       <c r="N19" s="78"/>
@@ -4182,21 +4172,21 @@
       <c r="AI19" s="78"/>
     </row>
     <row r="20" spans="1:35" s="60" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="180" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="181"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="181"/>
-      <c r="E20" s="181"/>
-      <c r="F20" s="181"/>
-      <c r="G20" s="182"/>
+      <c r="A20" s="168" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="169"/>
+      <c r="C20" s="169"/>
+      <c r="D20" s="169"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="170"/>
       <c r="H20" s="88">
         <f>SUM(H12:H17)</f>
         <v>340</v>
       </c>
       <c r="I20" s="87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N20" s="78"/>
       <c r="O20" s="79"/>
@@ -4259,7 +4249,7 @@
       <c r="C22" s="84"/>
       <c r="D22" s="85"/>
       <c r="E22" s="84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22" s="85"/>
       <c r="H22" s="85"/>
@@ -4292,23 +4282,23 @@
       <c r="A23" s="69"/>
       <c r="B23" s="68"/>
       <c r="C23" s="68"/>
-      <c r="D23" s="178" t="s">
-        <v>40</v>
+      <c r="D23" s="166" t="s">
+        <v>39</v>
       </c>
       <c r="E23" s="81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" s="82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" s="81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I23" s="80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N23" s="78"/>
       <c r="O23" s="79"/>
@@ -4336,7 +4326,7 @@
     <row r="24" spans="1:35" s="60" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="69"/>
       <c r="B24" s="68"/>
-      <c r="D24" s="179"/>
+      <c r="D24" s="167"/>
       <c r="E24" s="77" t="str">
         <f>G5</f>
         <v>LPG</v>
@@ -4365,10 +4355,10 @@
       <c r="B25" s="68"/>
       <c r="C25" s="68"/>
       <c r="D25" s="73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" s="72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" s="71" t="str">
         <f ca="1">DOLLAR(I24)&amp;"원"</f>
@@ -4437,7 +4427,7 @@
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I30" s="27"/>
     </row>
@@ -4506,6 +4496,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="E10:G11"/>
@@ -4519,16 +4519,6 @@
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">

--- a/유류대정산서_양식.xlsx
+++ b/유류대정산서_양식.xlsx
@@ -22,7 +22,7 @@
     <definedName name="전기">#REF!</definedName>
     <definedName name="하이브리드Oil">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1185,9 +1185,6 @@
     <xf numFmtId="179" fontId="13" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1240,6 +1237,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="25" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="14" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1710,8 +1710,8 @@
   </sheetPr>
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1814,7 +1814,7 @@
       <c r="H6" s="13">
         <v>10</v>
       </c>
-      <c r="I6" s="57"/>
+      <c r="I6" s="56"/>
     </row>
     <row r="7" spans="1:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
@@ -1841,7 +1841,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="42"/>
+      <c r="I8" s="41"/>
       <c r="R8"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1883,10 +1883,10 @@
     <row r="11" spans="1:18" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="67"/>
       <c r="B11" s="69"/>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="55" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="74"/>
@@ -1899,46 +1899,46 @@
       <c r="A12" s="18">
         <v>1</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="51"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="82"/>
       <c r="F12" s="83"/>
       <c r="G12" s="83"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="58"/>
+      <c r="I12" s="57"/>
     </row>
     <row r="13" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>2</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="51"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="82"/>
       <c r="F13" s="83"/>
       <c r="G13" s="83"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="58"/>
+      <c r="I13" s="57"/>
     </row>
     <row r="14" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>3</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="51"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="84"/>
       <c r="F14" s="84"/>
       <c r="G14" s="85"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="58"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="57"/>
     </row>
     <row r="15" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>4</v>
       </c>
-      <c r="B15" s="50"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="80"/>
@@ -2078,10 +2078,10 @@
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="52">
+      <c r="A26" s="51">
         <v>15</v>
       </c>
-      <c r="B26" s="53"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="20"/>
       <c r="D26" s="19"/>
       <c r="E26" s="80"/>
@@ -2100,7 +2100,7 @@
       <c r="E27" s="96"/>
       <c r="F27" s="96"/>
       <c r="G27" s="97"/>
-      <c r="H27" s="46">
+      <c r="H27" s="45">
         <f>SUM(H12:H26)</f>
         <v>0</v>
       </c>
@@ -2109,14 +2109,14 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="44"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="43"/>
       <c r="I28" s="16"/>
     </row>
     <row r="29" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -2163,11 +2163,14 @@
       <c r="B31" s="37"/>
       <c r="C31" s="93"/>
       <c r="D31" s="39"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="47"/>
       <c r="H31" s="40"/>
-      <c r="I31" s="41"/>
+      <c r="I31" s="59" t="str">
+        <f>IFERROR(E31*H31*F31/G31," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="36"/>
@@ -2178,7 +2181,10 @@
         <v>23</v>
       </c>
       <c r="F32" s="91"/>
-      <c r="G32" s="90"/>
+      <c r="G32" s="90" t="str">
+        <f>H27&amp;"원"</f>
+        <v>0원</v>
+      </c>
       <c r="H32" s="90"/>
       <c r="I32" s="25"/>
     </row>
@@ -2187,10 +2193,10 @@
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
       <c r="D33" s="24"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
       <c r="I33" s="25"/>
     </row>
     <row r="34" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">

--- a/유류대정산서_양식.xlsx
+++ b/유류대정산서_양식.xlsx
@@ -1239,7 +1239,61 @@
     <xf numFmtId="176" fontId="25" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="8" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="13" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="14" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1299,61 +1353,7 @@
     <xf numFmtId="14" fontId="11" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="8" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="13" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1711,7 +1711,7 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1729,28 +1729,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -1764,12 +1764,12 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="30" t="s">
@@ -1783,12 +1783,12 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="9" t="s">
@@ -1800,12 +1800,12 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="13" t="s">
@@ -1858,42 +1858,42 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:18" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="72" t="s">
+      <c r="D10" s="89"/>
+      <c r="E10" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="76" t="s">
+      <c r="F10" s="90"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="60" t="s">
+      <c r="I10" s="78" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67"/>
-      <c r="B11" s="69"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="54" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="61"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="79"/>
     </row>
     <row r="12" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
@@ -1902,9 +1902,9 @@
       <c r="B12" s="49"/>
       <c r="C12" s="53"/>
       <c r="D12" s="50"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
       <c r="H12" s="2"/>
       <c r="I12" s="57"/>
     </row>
@@ -1915,9 +1915,9 @@
       <c r="B13" s="49"/>
       <c r="C13" s="53"/>
       <c r="D13" s="50"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
       <c r="H13" s="2"/>
       <c r="I13" s="57"/>
     </row>
@@ -1928,9 +1928,9 @@
       <c r="B14" s="49"/>
       <c r="C14" s="58"/>
       <c r="D14" s="50"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="85"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="48"/>
       <c r="I14" s="57"/>
     </row>
@@ -1941,9 +1941,9 @@
       <c r="B15" s="49"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="81"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="62"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
     </row>
@@ -1954,9 +1954,9 @@
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="81"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="62"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
     </row>
@@ -1967,9 +1967,9 @@
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="81"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="62"/>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
     </row>
@@ -1980,9 +1980,9 @@
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="81"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="62"/>
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
     </row>
@@ -1993,9 +1993,9 @@
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="81"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="62"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
     </row>
@@ -2006,9 +2006,9 @@
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="62"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
     </row>
@@ -2019,9 +2019,9 @@
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="81"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
     </row>
@@ -2032,9 +2032,9 @@
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="81"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
     </row>
@@ -2045,9 +2045,9 @@
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="81"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="62"/>
       <c r="H23" s="2"/>
       <c r="I23" s="3"/>
     </row>
@@ -2058,9 +2058,9 @@
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="81"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="62"/>
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
     </row>
@@ -2071,9 +2071,9 @@
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="81"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="62"/>
       <c r="H25" s="2"/>
       <c r="I25" s="3"/>
     </row>
@@ -2084,22 +2084,22 @@
       <c r="B26" s="52"/>
       <c r="C26" s="20"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="81"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="62"/>
       <c r="H26" s="20"/>
       <c r="I26" s="33"/>
     </row>
     <row r="27" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="94" t="s">
+      <c r="A27" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="97"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="66"/>
       <c r="H27" s="45">
         <f>SUM(H12:H26)</f>
         <v>0</v>
@@ -2120,23 +2120,23 @@
       <c r="I28" s="16"/>
     </row>
     <row r="29" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="86" t="s">
+      <c r="A29" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="87"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="89"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="75"/>
       <c r="J29" s="34"/>
     </row>
     <row r="30" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="36"/>
       <c r="B30" s="37"/>
-      <c r="C30" s="92" t="s">
+      <c r="C30" s="59" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="22" t="s">
@@ -2161,13 +2161,13 @@
     <row r="31" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="36"/>
       <c r="B31" s="37"/>
-      <c r="C31" s="93"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="39"/>
       <c r="E31" s="46"/>
       <c r="F31" s="46"/>
       <c r="G31" s="47"/>
       <c r="H31" s="40"/>
-      <c r="I31" s="59" t="str">
+      <c r="I31" s="97" t="str">
         <f>IFERROR(E31*H31*F31/G31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -2177,15 +2177,15 @@
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
       <c r="D32" s="24"/>
-      <c r="E32" s="91" t="s">
+      <c r="E32" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="91"/>
-      <c r="G32" s="90" t="str">
+      <c r="F32" s="77"/>
+      <c r="G32" s="76" t="str">
         <f>H27&amp;"원"</f>
         <v>0원</v>
       </c>
-      <c r="H32" s="90"/>
+      <c r="H32" s="76"/>
       <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2201,16 +2201,16 @@
     </row>
     <row r="34" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
     </row>
     <row r="35" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="25"/>
@@ -2312,11 +2312,19 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E12:G12"/>
@@ -2333,19 +2341,11 @@
     <mergeCell ref="A29:I29"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="E32:F32"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="A27:G27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/유류대정산서_양식.xlsx
+++ b/유류대정산서_양식.xlsx
@@ -33,10 +33,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>차 량 운 행 일 지 (시외) : 당일 외근 및 출장시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
   <si>
     <t>작성일자:</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -316,6 +312,10 @@
     <t>(오피넷 유가 출장일 기준)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>차 량 운 행 일 지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1239,11 +1239,68 @@
     <xf numFmtId="176" fontId="25" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="8" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="13" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1251,21 +1308,6 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1296,64 +1338,22 @@
     <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="8" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="13" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1710,8 +1710,8 @@
   </sheetPr>
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1729,28 +1729,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
+      <c r="A1" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -1764,35 +1764,35 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
+      <c r="A4" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
+      <c r="A5" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="9">
         <v>10</v>
@@ -1800,16 +1800,16 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
+      <c r="A6" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="13">
         <v>10</v>
@@ -1824,7 +1824,7 @@
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="35">
         <v>7</v>
@@ -1847,7 +1847,7 @@
     <row r="9" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14"/>
       <c r="B9" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -1858,42 +1858,42 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:18" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="C10" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="D10" s="71"/>
+      <c r="E10" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="90" t="s">
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="90"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="94" t="s">
+      <c r="I10" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="78" t="s">
+    </row>
+    <row r="11" spans="1:18" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="67"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="54" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="85"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="54" t="s">
+      <c r="D11" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="79"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="61"/>
     </row>
     <row r="12" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
@@ -1902,9 +1902,9 @@
       <c r="B12" s="49"/>
       <c r="C12" s="53"/>
       <c r="D12" s="50"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
       <c r="H12" s="2"/>
       <c r="I12" s="57"/>
     </row>
@@ -1915,9 +1915,9 @@
       <c r="B13" s="49"/>
       <c r="C13" s="53"/>
       <c r="D13" s="50"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
       <c r="H13" s="2"/>
       <c r="I13" s="57"/>
     </row>
@@ -1928,9 +1928,9 @@
       <c r="B14" s="49"/>
       <c r="C14" s="58"/>
       <c r="D14" s="50"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="85"/>
       <c r="H14" s="48"/>
       <c r="I14" s="57"/>
     </row>
@@ -1941,9 +1941,9 @@
       <c r="B15" s="49"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="62"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="81"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
     </row>
@@ -1954,9 +1954,9 @@
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="62"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="81"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
     </row>
@@ -1967,9 +1967,9 @@
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="62"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
     </row>
@@ -1980,9 +1980,9 @@
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="62"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="81"/>
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
     </row>
@@ -1993,9 +1993,9 @@
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="62"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="81"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
     </row>
@@ -2006,9 +2006,9 @@
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="62"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="81"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
     </row>
@@ -2019,9 +2019,9 @@
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="62"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="81"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
     </row>
@@ -2032,9 +2032,9 @@
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="62"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="81"/>
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
     </row>
@@ -2045,9 +2045,9 @@
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="62"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="81"/>
       <c r="H23" s="2"/>
       <c r="I23" s="3"/>
     </row>
@@ -2058,9 +2058,9 @@
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="62"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="81"/>
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
     </row>
@@ -2071,9 +2071,9 @@
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="62"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="81"/>
       <c r="H25" s="2"/>
       <c r="I25" s="3"/>
     </row>
@@ -2084,28 +2084,28 @@
       <c r="B26" s="52"/>
       <c r="C26" s="20"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="62"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="81"/>
       <c r="H26" s="20"/>
       <c r="I26" s="33"/>
     </row>
     <row r="27" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="66"/>
+      <c r="A27" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="97"/>
       <c r="H27" s="45">
         <f>SUM(H12:H26)</f>
         <v>0</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2120,54 +2120,54 @@
       <c r="I28" s="16"/>
     </row>
     <row r="29" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="72" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="75"/>
+      <c r="A29" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="87"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="89"/>
       <c r="J29" s="34"/>
     </row>
     <row r="30" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="36"/>
       <c r="B30" s="37"/>
-      <c r="C30" s="59" t="s">
-        <v>29</v>
+      <c r="C30" s="92" t="s">
+        <v>28</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="22" t="s">
+      <c r="I30" s="38" t="s">
         <v>16</v>
-      </c>
-      <c r="I30" s="38" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="36"/>
       <c r="B31" s="37"/>
-      <c r="C31" s="60"/>
+      <c r="C31" s="93"/>
       <c r="D31" s="39"/>
       <c r="E31" s="46"/>
       <c r="F31" s="46"/>
       <c r="G31" s="47"/>
       <c r="H31" s="40"/>
-      <c r="I31" s="97" t="str">
+      <c r="I31" s="59" t="str">
         <f>IFERROR(E31*H31*F31/G31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -2177,15 +2177,15 @@
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
       <c r="D32" s="24"/>
-      <c r="E32" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="77"/>
-      <c r="G32" s="76" t="str">
+      <c r="E32" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="91"/>
+      <c r="G32" s="90" t="str">
         <f>H27&amp;"원"</f>
         <v>0원</v>
       </c>
-      <c r="H32" s="76"/>
+      <c r="H32" s="90"/>
       <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2201,16 +2201,16 @@
     </row>
     <row r="34" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
-      <c r="B34" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
+      <c r="B34" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
     </row>
     <row r="35" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="25"/>
@@ -2243,7 +2243,7 @@
       <c r="F37" s="27"/>
       <c r="G37" s="27"/>
       <c r="H37" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I37" s="27"/>
     </row>
@@ -2312,19 +2312,11 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="A27:G27"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E12:G12"/>
@@ -2341,11 +2333,19 @@
     <mergeCell ref="A29:I29"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/유류대정산서_양식.xlsx
+++ b/유류대정산서_양식.xlsx
@@ -560,7 +560,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -959,15 +959,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1061,7 +1052,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1161,9 +1152,6 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1215,37 +1203,85 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="8" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="13" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="14" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1260,7 +1296,7 @@
     <xf numFmtId="176" fontId="23" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="14" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1293,68 +1329,17 @@
     <xf numFmtId="176" fontId="14" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="8" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="13" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1381,7 +1366,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>959304</xdr:colOff>
+      <xdr:colOff>277091</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>596446</xdr:rowOff>
     </xdr:from>
@@ -1419,8 +1404,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11695340" y="21728339"/>
-          <a:ext cx="2478768" cy="723900"/>
+          <a:off x="11135591" y="23335219"/>
+          <a:ext cx="3148611" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1711,7 +1696,7 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:G17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1729,28 +1714,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -1764,12 +1749,12 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="30" t="s">
@@ -1783,12 +1768,12 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="9" t="s">
@@ -1800,12 +1785,12 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="13" t="s">
@@ -1814,7 +1799,7 @@
       <c r="H6" s="13">
         <v>10</v>
       </c>
-      <c r="I6" s="56"/>
+      <c r="I6" s="54"/>
     </row>
     <row r="7" spans="1:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
@@ -1823,10 +1808,10 @@
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="34">
         <v>7</v>
       </c>
       <c r="I7" s="17"/>
@@ -1841,7 +1826,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="41"/>
+      <c r="I8" s="40"/>
       <c r="R8"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1858,92 +1843,92 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:18" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="72" t="s">
+      <c r="D10" s="86"/>
+      <c r="E10" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="76" t="s">
+      <c r="F10" s="87"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="60" t="s">
+      <c r="I10" s="75" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="54" t="s">
+      <c r="A11" s="82"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="61"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="76"/>
     </row>
     <row r="12" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>1</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="57"/>
+      <c r="I12" s="94"/>
     </row>
     <row r="13" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>2</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="57"/>
+      <c r="I13" s="94"/>
     </row>
     <row r="14" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>3</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="57"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="94"/>
     </row>
     <row r="15" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>4</v>
       </c>
-      <c r="B15" s="49"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="81"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
     </row>
@@ -1954,9 +1939,9 @@
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="81"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="61"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
     </row>
@@ -1967,9 +1952,9 @@
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="81"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
     </row>
@@ -1980,9 +1965,9 @@
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="81"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
     </row>
@@ -1993,9 +1978,9 @@
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="81"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="61"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
     </row>
@@ -2006,9 +1991,9 @@
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="61"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
     </row>
@@ -2019,9 +2004,9 @@
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="81"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
     </row>
@@ -2032,9 +2017,9 @@
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="81"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="61"/>
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
     </row>
@@ -2045,9 +2030,9 @@
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="81"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
       <c r="H23" s="2"/>
       <c r="I23" s="3"/>
     </row>
@@ -2058,9 +2043,9 @@
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="81"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61"/>
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
     </row>
@@ -2071,36 +2056,36 @@
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="81"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="2"/>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="51">
+      <c r="A26" s="50">
         <v>15</v>
       </c>
-      <c r="B26" s="52"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="20"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="81"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="61"/>
       <c r="H26" s="20"/>
-      <c r="I26" s="33"/>
+      <c r="I26" s="19"/>
     </row>
     <row r="27" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="94" t="s">
+      <c r="A27" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="45">
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="44">
         <f>SUM(H12:H26)</f>
         <v>0</v>
       </c>
@@ -2109,34 +2094,34 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="43"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="16"/>
     </row>
     <row r="29" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="86" t="s">
+      <c r="A29" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="87"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="34"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="33"/>
     </row>
     <row r="30" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="92" t="s">
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="58" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="22" t="s">
@@ -2154,63 +2139,63 @@
       <c r="H30" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="38" t="s">
+      <c r="I30" s="37" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="36"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="59" t="str">
+      <c r="A31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="56" t="str">
         <f>IFERROR(E31*H31*F31/G31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="36"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="24"/>
-      <c r="E32" s="91" t="s">
+      <c r="E32" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="91"/>
-      <c r="G32" s="90" t="str">
+      <c r="F32" s="74"/>
+      <c r="G32" s="73" t="str">
         <f>H27&amp;"원"</f>
         <v>0원</v>
       </c>
-      <c r="H32" s="90"/>
+      <c r="H32" s="73"/>
       <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="36"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="24"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
       <c r="I33" s="25"/>
     </row>
     <row r="34" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
     </row>
     <row r="35" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="25"/>
@@ -2312,11 +2297,19 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E12:G12"/>
@@ -2333,19 +2326,11 @@
     <mergeCell ref="A29:I29"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="E32:F32"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="A27:G27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
